--- a/data/grindstone100/grindstone-pacing.xlsx
+++ b/data/grindstone100/grindstone-pacing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spak01\Documents\GitHub\ultradata\grindstone100\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spak01\Documents\GitHub\ultradata\data\grindstone100\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39538412-06EF-4B70-AEDF-72BB931C10A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="48810" yWindow="2850" windowWidth="21600" windowHeight="11205" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="grindstone-pacing" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
   <si>
     <t>Aid Station Name</t>
   </si>
@@ -33,16 +34,7 @@
     <t>Crew Access</t>
   </si>
   <si>
-    <t>Drop Bags</t>
-  </si>
-  <si>
     <t>Elevation</t>
-  </si>
-  <si>
-    <t>17min/mile pace</t>
-  </si>
-  <si>
-    <t>20min/mile pace</t>
   </si>
   <si>
     <t>38 hour cutoff</t>
@@ -78,9 +70,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t xml:space="preserve"> Yes </t>
-  </si>
-  <si>
     <t xml:space="preserve">North River Gap </t>
   </si>
   <si>
@@ -89,11 +78,23 @@
   <si>
     <t>X</t>
   </si>
+  <si>
+    <t>30hr.pace</t>
+  </si>
+  <si>
+    <t>38hr.pace</t>
+  </si>
+  <si>
+    <t>38hr cut</t>
+  </si>
+  <si>
+    <t>17:40pace.CLOCK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,7 +587,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -601,13 +602,16 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="20" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -664,6 +668,283 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="25" formatCode="h:mm"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="31" formatCode="[h]:mm:ss"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -681,6 +962,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -695,121 +977,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -823,19 +991,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -853,6 +1009,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -867,134 +1024,7 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="25" formatCode="h:mm"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
     </dxf>
@@ -1012,38 +1042,38 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:J15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:J15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:J15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:J15" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="X" dataDxfId="23"/>
-    <tableColumn id="2" name="Aid Station Name" dataDxfId="22"/>
-    <tableColumn id="4" name="Seg Distance" dataDxfId="21"/>
-    <tableColumn id="5" name="Mileage" dataDxfId="20"/>
-    <tableColumn id="6" name="Crew Access" dataDxfId="19"/>
-    <tableColumn id="7" name="Drop Bags" dataDxfId="18"/>
-    <tableColumn id="8" name="Elevation" dataDxfId="17"/>
-    <tableColumn id="10" name="17min/mile pace" dataDxfId="16"/>
-    <tableColumn id="12" name="20min/mile pace" dataDxfId="15"/>
-    <tableColumn id="13" name="38 hour cutoff" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="X" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Aid Station Name" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Seg Distance" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Mileage" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Crew Access" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Elevation" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="30hr.pace" dataDxfId="12"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="17:40pace.CLOCK" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="38hr.pace" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="38hr cut" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A17:J31" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A17:J31"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table35" displayName="Table35" ref="A17:J31" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A17:J31" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="X" dataDxfId="11"/>
-    <tableColumn id="2" name="Aid Station Name" dataDxfId="10"/>
-    <tableColumn id="4" name="Seg Distance" dataDxfId="9"/>
-    <tableColumn id="5" name="Mileage" dataDxfId="8"/>
-    <tableColumn id="6" name="Crew Access" dataDxfId="7"/>
-    <tableColumn id="7" name="Drop Bags" dataDxfId="6"/>
-    <tableColumn id="8" name="Elevation" dataDxfId="5"/>
-    <tableColumn id="10" name="17min/mile pace" dataDxfId="4"/>
-    <tableColumn id="12" name="20min/mile pace" dataDxfId="3"/>
-    <tableColumn id="13" name="38 hour cutoff" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="X" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Aid Station Name" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Seg Distance" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Mileage" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Crew Access" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Elevation" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="30hr.pace" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="17:40pace.CLOCK" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="38hr.pace" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="38 hour cutoff" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1311,11 +1341,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1323,45 +1353,46 @@
     <col min="1" max="1" width="4.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="8" style="3" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" style="3" customWidth="1"/>
     <col min="7" max="7" width="8" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="3" customWidth="1"/>
-    <col min="9" max="10" width="14.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
+    <col min="10" max="10" width="9" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -1369,30 +1400,30 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="6">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
         <v>5.18</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="3">
         <v>5.18</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="6">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
         <v>2073</v>
       </c>
-      <c r="H2" s="7">
-        <v>0.81111111111111101</v>
-      </c>
-      <c r="I2" s="7">
-        <v>0.82152777777777775</v>
-      </c>
-      <c r="J2" s="7">
+      <c r="G2" s="4">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="J2" s="6">
         <v>0.8125</v>
       </c>
     </row>
@@ -1401,30 +1432,30 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="6">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="3">
         <v>14.63</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
         <v>2530</v>
       </c>
-      <c r="H3" s="7">
-        <v>0.92222222222222217</v>
-      </c>
-      <c r="I3" s="7">
-        <v>0.95277777777777783</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="G3" s="4">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="J3" s="6">
         <v>0.94791666666666663</v>
       </c>
     </row>
@@ -1433,30 +1464,30 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3">
         <v>7.48</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="3">
         <v>22.11</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
         <v>1986</v>
       </c>
-      <c r="H4" s="7">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="J4" s="7">
+      <c r="G4" s="4">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="J4" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1465,30 +1496,30 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="6">
+        <v>11</v>
+      </c>
+      <c r="C5" s="3">
         <v>8.67</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="3">
         <v>30.78</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="E5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3">
         <v>2575</v>
       </c>
-      <c r="H5" s="7">
-        <v>0.11319444444444444</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="J5" s="7">
+      <c r="G5" s="4">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="J5" s="6">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -1497,30 +1528,30 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3">
         <v>6.35</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>37.130000000000003</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6">
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3">
         <v>1609</v>
       </c>
-      <c r="H6" s="7">
-        <v>0.18819444444444444</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0.26527777777777778</v>
-      </c>
-      <c r="J6" s="7">
+      <c r="G6" s="4">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="J6" s="6">
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -1529,30 +1560,30 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="6">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3">
         <v>7.83</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>44.96</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6">
+      <c r="E7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="3">
         <v>4016</v>
       </c>
-      <c r="H7" s="7">
-        <v>0.28055555555555556</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0.3743055555555555</v>
-      </c>
-      <c r="J7" s="7">
+      <c r="G7" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J7" s="6">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -1561,30 +1592,30 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="6">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
         <v>6.6</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="3">
         <v>51.56</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="6">
+      <c r="E8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="3">
         <v>3844</v>
       </c>
-      <c r="H8" s="7">
-        <v>0.35902777777777778</v>
-      </c>
-      <c r="I8" s="7">
-        <v>0.46597222222222223</v>
-      </c>
-      <c r="J8" s="7">
+      <c r="G8" s="4">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="J8" s="6">
         <v>0.51041666666666663</v>
       </c>
     </row>
@@ -1593,30 +1624,30 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="6">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3">
         <v>5.94</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="3">
         <v>57.5</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6">
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3">
         <v>4016</v>
       </c>
-      <c r="H9" s="7">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="J9" s="7">
+      <c r="G9" s="4">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.89374999999999993</v>
+      </c>
+      <c r="J9" s="6">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -1625,30 +1656,30 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="6">
+        <v>16</v>
+      </c>
+      <c r="C10" s="3">
         <v>7.83</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="3">
         <v>65.33</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3">
         <v>1609</v>
       </c>
-      <c r="H10" s="7">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="I10" s="7">
-        <v>0.65694444444444444</v>
-      </c>
-      <c r="J10" s="7">
+      <c r="G10" s="4">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1.0152777777777777</v>
+      </c>
+      <c r="J10" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -1657,30 +1688,30 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="6">
+        <v>11</v>
+      </c>
+      <c r="C11" s="3">
         <v>6.35</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="3">
         <v>71.680000000000007</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6">
+      <c r="E11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
         <v>2575</v>
       </c>
-      <c r="H11" s="7">
-        <v>0.59652777777777777</v>
-      </c>
-      <c r="I11" s="7">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="J11" s="7">
+      <c r="G11" s="4">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="I11" s="8">
+        <v>1.1145833333333333</v>
+      </c>
+      <c r="J11" s="6">
         <v>0.84375</v>
       </c>
     </row>
@@ -1689,30 +1720,30 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3">
         <v>8.67</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="3">
         <v>80.349999999999994</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="6">
+      <c r="E12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="3">
         <v>1986</v>
       </c>
-      <c r="H12" s="7">
-        <v>0.69930555555555562</v>
-      </c>
-      <c r="I12" s="7">
-        <v>0.86597222222222225</v>
-      </c>
-      <c r="J12" s="7">
+      <c r="G12" s="4">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="I12" s="8">
+        <v>1.2493055555555557</v>
+      </c>
+      <c r="J12" s="6">
         <v>0.97916666666666663</v>
       </c>
     </row>
@@ -1721,30 +1752,30 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="6">
+        <v>8</v>
+      </c>
+      <c r="C13" s="3">
         <v>7.48</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="3">
         <v>87.83</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="6" t="s">
+      <c r="E13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="6">
+      <c r="F13" s="3">
         <v>2530</v>
       </c>
-      <c r="H13" s="7">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="I13" s="7">
-        <v>0.96944444444444444</v>
-      </c>
-      <c r="J13" s="7">
+      <c r="G13" s="8">
+        <v>1.0777777777777777</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0.82708333333333339</v>
+      </c>
+      <c r="I13" s="8">
+        <v>1.3652777777777778</v>
+      </c>
+      <c r="J13" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -1753,30 +1784,30 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="6">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
         <v>8.84</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="3">
         <v>96.67</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="6" t="s">
+      <c r="E14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="6">
+      <c r="F14" s="3">
         <v>2073</v>
       </c>
-      <c r="H14" s="7">
-        <v>0.89166666666666661</v>
-      </c>
-      <c r="I14" s="7">
-        <v>9.2361111111111116E-2</v>
-      </c>
-      <c r="J14" s="7">
+      <c r="G14" s="8">
+        <v>1.1861111111111111</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="I14" s="8">
+        <v>1.502777777777778</v>
+      </c>
+      <c r="J14" s="6">
         <v>0.22916666666666666</v>
       </c>
     </row>
@@ -1785,26 +1816,27 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="6">
+        <v>17</v>
+      </c>
+      <c r="C15" s="3">
         <v>5.18</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="3">
         <v>101.85</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6">
+      <c r="F15" s="3">
         <v>1693</v>
       </c>
-      <c r="H15" s="7">
-        <v>0.95277777777777783</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0.16458333333333333</v>
-      </c>
-      <c r="J15" s="7">
+      <c r="G15" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="H15" s="4">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I15" s="8">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="J15" s="6">
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -1814,40 +1846,40 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="8"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="5" t="s">
+      <c r="I17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
@@ -1855,30 +1887,30 @@
         <v>1</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
         <v>5.18</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="3">
         <v>5.18</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6">
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3">
         <v>2073</v>
       </c>
-      <c r="H18" s="7">
-        <v>0.81111111111111101</v>
-      </c>
-      <c r="I18" s="7">
-        <v>0.82152777777777775</v>
-      </c>
-      <c r="J18" s="7">
+      <c r="G18" s="4">
+        <v>6.3888888888888884E-2</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0.81319444444444444</v>
+      </c>
+      <c r="I18" s="4">
+        <v>8.0555555555555561E-2</v>
+      </c>
+      <c r="J18" s="6">
         <v>0.8125</v>
       </c>
     </row>
@@ -1887,30 +1919,30 @@
         <v>2</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6">
+        <v>8</v>
+      </c>
+      <c r="C19" s="3">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="3">
         <v>14.63</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6">
+      <c r="E19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="3">
         <v>2530</v>
       </c>
-      <c r="H19" s="7">
-        <v>0.92222222222222217</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0.95277777777777783</v>
-      </c>
-      <c r="J19" s="7">
+      <c r="G19" s="4">
+        <v>0.17986111111111111</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0.9291666666666667</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0.22777777777777777</v>
+      </c>
+      <c r="J19" s="6">
         <v>0.94791666666666663</v>
       </c>
     </row>
@@ -1919,30 +1951,30 @@
         <v>3</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6">
+        <v>9</v>
+      </c>
+      <c r="C20" s="3">
         <v>7.48</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="3">
         <v>22.11</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="6">
+      <c r="E20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="3">
         <v>1986</v>
       </c>
-      <c r="H20" s="7">
-        <v>1.1111111111111112E-2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>5.6944444444444443E-2</v>
-      </c>
-      <c r="J20" s="7">
+      <c r="G20" s="4">
+        <v>0.27152777777777776</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0.34375</v>
+      </c>
+      <c r="J20" s="6">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
@@ -1951,30 +1983,30 @@
         <v>4</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="6">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
         <v>8.67</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="3">
         <v>30.78</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6">
+      <c r="E21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3">
         <v>2575</v>
       </c>
-      <c r="H21" s="7">
-        <v>0.11319444444444444</v>
-      </c>
-      <c r="I21" s="7">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="J21" s="7">
+      <c r="G21" s="4">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.12708333333333333</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0.47847222222222219</v>
+      </c>
+      <c r="J21" s="6">
         <v>0.16666666666666666</v>
       </c>
     </row>
@@ -1983,30 +2015,30 @@
         <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="6">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3">
         <v>6.35</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="3">
         <v>37.130000000000003</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" s="6">
+      <c r="E22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="3">
         <v>1609</v>
       </c>
-      <c r="H22" s="7">
-        <v>0.18819444444444444</v>
-      </c>
-      <c r="I22" s="7">
-        <v>0.26527777777777778</v>
-      </c>
-      <c r="J22" s="7">
+      <c r="G22" s="4">
+        <v>0.45555555555555555</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.20486111111111113</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0.57708333333333328</v>
+      </c>
+      <c r="J22" s="6">
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -2015,30 +2047,30 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="6">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
         <v>7.83</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="3">
         <v>44.96</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="6">
+      <c r="E23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
         <v>4016</v>
       </c>
-      <c r="H23" s="7">
-        <v>0.28055555555555556</v>
-      </c>
-      <c r="I23" s="7">
-        <v>0.3743055555555555</v>
-      </c>
-      <c r="J23" s="7">
+      <c r="G23" s="4">
+        <v>0.55208333333333337</v>
+      </c>
+      <c r="H23" s="4">
+        <v>0.30138888888888887</v>
+      </c>
+      <c r="I23" s="4">
+        <v>0.69861111111111107</v>
+      </c>
+      <c r="J23" s="6">
         <v>0.39583333333333331</v>
       </c>
     </row>
@@ -2047,30 +2079,30 @@
         <v>7</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" s="6">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3">
         <v>6.6</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="3">
         <v>51.56</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G24" s="6">
+      <c r="E24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3">
         <v>3844</v>
       </c>
-      <c r="H24" s="7">
-        <v>0.35902777777777778</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0.46597222222222223</v>
-      </c>
-      <c r="J24" s="7">
+      <c r="G24" s="4">
+        <v>0.63263888888888886</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.38194444444444442</v>
+      </c>
+      <c r="I24" s="4">
+        <v>0.80138888888888893</v>
+      </c>
+      <c r="J24" s="6">
         <v>0.51041666666666663</v>
       </c>
     </row>
@@ -2079,30 +2111,30 @@
         <v>8</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3">
         <v>5.94</v>
       </c>
-      <c r="D25" s="6">
+      <c r="D25" s="3">
         <v>57.5</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="6">
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3">
         <v>4016</v>
       </c>
-      <c r="H25" s="7">
-        <v>0.4291666666666667</v>
-      </c>
-      <c r="I25" s="7">
-        <v>0.54861111111111105</v>
-      </c>
-      <c r="J25" s="7">
+      <c r="G25" s="4">
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.4548611111111111</v>
+      </c>
+      <c r="I25" s="4">
+        <v>0.89374999999999993</v>
+      </c>
+      <c r="J25" s="6">
         <v>0.60416666666666663</v>
       </c>
     </row>
@@ -2111,30 +2143,30 @@
         <v>9</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="6">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3">
         <v>7.83</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="3">
         <v>65.33</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="6">
+      <c r="E26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="3">
         <v>1609</v>
       </c>
-      <c r="H26" s="7">
-        <v>0.52152777777777781</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0.65694444444444444</v>
-      </c>
-      <c r="J26" s="7">
+      <c r="G26" s="4">
+        <v>0.80208333333333337</v>
+      </c>
+      <c r="H26" s="4">
+        <v>0.55138888888888882</v>
+      </c>
+      <c r="I26" s="8">
+        <v>1.0152777777777777</v>
+      </c>
+      <c r="J26" s="6">
         <v>0.75</v>
       </c>
     </row>
@@ -2143,30 +2175,30 @@
         <v>10</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="6">
+        <v>11</v>
+      </c>
+      <c r="C27" s="3">
         <v>6.35</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="3">
         <v>71.680000000000007</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="6">
+      <c r="E27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="3">
         <v>2575</v>
       </c>
-      <c r="H27" s="7">
-        <v>0.59652777777777777</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0.74513888888888891</v>
-      </c>
-      <c r="J27" s="7">
+      <c r="G27" s="4">
+        <v>0.87986111111111109</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.62916666666666665</v>
+      </c>
+      <c r="I27" s="8">
+        <v>1.1145833333333333</v>
+      </c>
+      <c r="J27" s="6">
         <v>0.84375</v>
       </c>
     </row>
@@ -2175,30 +2207,30 @@
         <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6">
+        <v>9</v>
+      </c>
+      <c r="C28" s="3">
         <v>8.67</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="3">
         <v>80.349999999999994</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="6">
+      <c r="E28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
         <v>1986</v>
       </c>
-      <c r="H28" s="7">
-        <v>0.69930555555555562</v>
-      </c>
-      <c r="I28" s="7">
-        <v>0.86597222222222225</v>
-      </c>
-      <c r="J28" s="7">
+      <c r="G28" s="4">
+        <v>0.98611111111111116</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0.73541666666666661</v>
+      </c>
+      <c r="I28" s="8">
+        <v>1.2493055555555557</v>
+      </c>
+      <c r="J28" s="6">
         <v>0.97916666666666663</v>
       </c>
     </row>
@@ -2207,30 +2239,30 @@
         <v>12</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29" s="6">
+        <v>8</v>
+      </c>
+      <c r="C29" s="3">
         <v>7.48</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="3">
         <v>87.83</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" s="6" t="s">
+      <c r="E29" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G29" s="6">
+      <c r="F29" s="3">
         <v>2530</v>
       </c>
-      <c r="H29" s="7">
-        <v>0.78749999999999998</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0.96944444444444444</v>
-      </c>
-      <c r="J29" s="7">
+      <c r="G29" s="8">
+        <v>1.0777777777777777</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.82708333333333339</v>
+      </c>
+      <c r="I29" s="8">
+        <v>1.3652777777777778</v>
+      </c>
+      <c r="J29" s="6">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
@@ -2239,30 +2271,30 @@
         <v>13</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="6">
+        <v>6</v>
+      </c>
+      <c r="C30" s="3">
         <v>8.84</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="3">
         <v>96.67</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="6" t="s">
+      <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G30" s="6">
+      <c r="F30" s="3">
         <v>2073</v>
       </c>
-      <c r="H30" s="7">
-        <v>0.89166666666666661</v>
-      </c>
-      <c r="I30" s="7">
-        <v>9.2361111111111116E-2</v>
-      </c>
-      <c r="J30" s="7">
+      <c r="G30" s="8">
+        <v>1.1861111111111111</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.93541666666666667</v>
+      </c>
+      <c r="I30" s="8">
+        <v>1.502777777777778</v>
+      </c>
+      <c r="J30" s="6">
         <v>0.22916666666666666</v>
       </c>
     </row>
@@ -2271,26 +2303,27 @@
         <v>14</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="6">
+        <v>17</v>
+      </c>
+      <c r="C31" s="3">
         <v>5.18</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="3">
         <v>101.85</v>
       </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6">
+      <c r="F31" s="3">
         <v>1693</v>
       </c>
-      <c r="H31" s="7">
-        <v>0.95277777777777783</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0.16458333333333333</v>
-      </c>
-      <c r="J31" s="7">
+      <c r="G31" s="8">
+        <v>1.25</v>
+      </c>
+      <c r="H31" s="4">
+        <v>0.99930555555555556</v>
+      </c>
+      <c r="I31" s="8">
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="J31" s="6">
         <v>0.33333333333333331</v>
       </c>
     </row>
